--- a/src/tools/sync_app/IpAddress.xlsx
+++ b/src/tools/sync_app/IpAddress.xlsx
@@ -1,42 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoduc\PycharmProjects\BVGD_Project\src\tools\sync_app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pnqt\PycharmProjects\bvgd_project\src\tools\sync_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD4E008-2807-4837-A86C-5FCB7CC4410F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23AF9EE5-65DB-421F-966E-72B2D0CD7E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1C8DD69B-D72C-41D4-A396-9565B19CCF78}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1C8DD69B-D72C-41D4-A396-9565B19CCF78}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
   <si>
     <t>IpAddress</t>
   </si>
@@ -44,9 +33,6 @@
     <t>GroupName</t>
   </si>
   <si>
-    <t>10.0.0.1</t>
-  </si>
-  <si>
     <t>Khoa1</t>
   </si>
   <si>
@@ -90,13 +76,19 @@
   </si>
   <si>
     <t>10.0.0.14</t>
+  </si>
+  <si>
+    <t>192.168.116.173</t>
+  </si>
+  <si>
+    <t>KhoaKham</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -472,12 +464,16 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="11.625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -485,116 +481,116 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
         <v>14</v>
       </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
         <v>15</v>
       </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
